--- a/assets/test_cases.xlsx
+++ b/assets/test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="429">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -142,6 +142,237 @@
     <t xml:space="preserve">It will skip already scrapped files</t>
   </si>
   <si>
+    <t xml:space="preserve">TC_SCRAP_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Wikipedia page redirection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send request to Wikipedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirects properly (if applicable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle non-200 status codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch Wikipedia page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proper error message for bad status codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract additional company details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracts full company data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate currency format in valuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract valuation data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency format should be consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle missing valuation field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skips missing valuation gracefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify file writing operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save extracted data to file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data is stored correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check duplicate scrapped files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare saved files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoids duplicate scraping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify handling of special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract company name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special characters are handled correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle empty Wikipedia page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrape empty Wikipedia link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns "No content found" message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate country extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract country from table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracts correct country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate industry extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract industry from table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracts correct industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify startup founded year format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract founded year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year format should be YYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle missing founded year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skips missing founded year gracefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle rate limiting errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make multiple Wikipedia requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles HTTP 429 error gracefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify extracted hyperlinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract Wikipedia URLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracts correct Wikipedia links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle broken Wikipedia links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access extracted URLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detects and handles broken links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify retry mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulate request failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retries correct number of times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure correct filename format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save file with company name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filenames are correctly formatted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate stored text readability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open saved file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text is readable and structured well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SCRAP_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle large Wikipedia pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrape large content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully extracts large amounts of data</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC_EMBED_001</t>
   </si>
   <si>
@@ -220,6 +451,222 @@
     <t xml:space="preserve">Generates embeddings without memory issues</t>
   </si>
   <si>
+    <t xml:space="preserve">TC_EMBED_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify multi-language support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed text in different languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embeddings generated correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check model response time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure embedding speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response time &lt; expected threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed text with emojis/symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No errors; embeddings generated correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate embeddings for synonyms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed similar meaning words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar embeddings generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle large batch requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed 10,000+ texts at once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch processed without failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Weaviate query accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search similar vectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves expected similar texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle long queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query Weaviate with long text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns expected vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check cosine similarity consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare embeddings of similar texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similarity score &gt; threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify embedding size consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed multiple text samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output vector size remains consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle malformed input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed corrupted text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns error or empty embedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate different model performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare different embedding models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected variations in embedding results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test API rate limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send excessive requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns appropriate rate-limit error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate storage persistence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restart Weaviate &amp; retrieve vectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stored vectors remain unchanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test vector similarity threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query with nearly identical text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similarity score within expected range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle embedding for short texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed single-word texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embeddings generated without issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle text with numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed alphanumeric text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct embeddings generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate embeddings for domain terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embed specialized terminology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaningful embeddings generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EMBED_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check multi-user embedding load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous embeddings from users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No system crashes; embeddings work normally</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC_CHATBOT_001</t>
   </si>
   <si>
@@ -334,6 +781,246 @@
     <t xml:space="preserve">The chatbot should correctly remember the previous queries within the same session.</t>
   </si>
   <si>
+    <t xml:space="preserve">TC_CHATBOT_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle partial queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a question with incomplete details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves the most relevant stored information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle synonyms in queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a question using synonyms of stored terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns correct information by understanding synonyms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle misspelled words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a question with minor typos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still retrieves relevant information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioritize recent information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a question with multiple possible answers, one being recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the most recently stored relevant data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle multi-turn questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a follow-up question referencing previous context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintains conversation flow with correct context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle ambiguous queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a vague or broad question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asks for clarification or provides the most relevant response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve long-form answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask for detailed explanations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a structured and informative response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle multi-lingual queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a question in a different language (if supported)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves relevant answer in the queried language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve numerical data accurately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask for statistics or numerical facts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the correct numerical values from stored data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle contextual queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a query dependent on previous chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understands and responds based on stored context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle contradictory queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask conflicting follow-up questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusts response based on latest user intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract key insights from documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query based on uploaded or stored text chunks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves summarized relevant insights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve date-sensitive information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask about an event with a specific date range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns information relevant to the provided timeframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle fact-based verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask if a stored fact is true or false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a fact-check response with source reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare multiple stored facts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a question requiring comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides a clear comparative analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle out-of-domain queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask a question unrelated to stored data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a fallback response indicating no relevant data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure query processing time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track response speed for stored queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responds within an acceptable time threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate knowledge update mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask about a newly added fact in the vector database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves the updated information correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle bulk queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask multiple questions in a single message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processes and responds to all questions accurately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CHATBOT_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure consistency in responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask the same question at different times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a consistent answer based on stored data</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC_EVAL_001</t>
   </si>
   <si>
@@ -395,6 +1082,231 @@
   </si>
   <si>
     <t xml:space="preserve">Runs without key getting exhaust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate incorrect chatbot responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run evaluation with misleading chatbot answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scores should reflect poor accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate chatbot responses with no retrieved context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run evaluation with empty context retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot should respond with "I don't know"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate chatbot responses with partial retrieved context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run evaluation with incomplete context retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot should make a reasonable attempt based on available data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate BLEU score calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify BLEU score computation for various responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEU scores should be consistent with expectations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate ROUGE score calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify ROUGE score computation for different answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUGE scores should align with expected values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate METEOR score calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify METEOR score computation for various responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METEOR scores should be consistent with linguistic similarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate BERTScore calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run evaluation on varied chatbot responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERTScore should align with semantic similarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle long-form answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate responses with large text input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The script should handle long answers without errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle short-form answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate responses with very brief answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The script should handle short answers correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate chatbot response consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the same question multiple times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot should generate consistent responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle questions outside dataset scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask questions not in the dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate response latency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure average response time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response time should be within acceptable limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle API failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulate API key failure or timeout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation should handle errors gracefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate memory consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run script on a very large dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory usage should be within acceptable limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate model output diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare responses across different runs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some variation in responses is expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate token usage efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor token consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token usage should be optimized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle non-English questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask questions in languages other than English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot should handle or return "I don't know"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate handling of ambiguous questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide vague or multi-interpretation questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot should request clarification or make reasonable assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_EVAL_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle noisy input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide input with typos and grammar errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot should still generate reasonable responses</t>
   </si>
 </sst>
 </file>
@@ -410,6 +1322,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,6 +1345,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,7 +1397,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -494,6 +1408,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -517,13 +1439,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.09"/>
@@ -713,426 +1635,1985 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="D15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="D18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="D20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="D23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="E23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="D24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="D25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="E25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="D26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="E26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="B33" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
+      <c r="E33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
